--- a/designment/mvc-framework-demonstrament.xlsx
+++ b/designment/mvc-framework-demonstrament.xlsx
@@ -2,17 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="VINE_Demonstrament" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="VERS_$NAME" sheetId="2" state="hidden" r:id="rId4"/>
-    <sheet name="VIEW_$NAME" sheetId="3" state="hidden" r:id="rId5"/>
-    <sheet name="VELI_$NAME" sheetId="4" state="hidden" r:id="rId6"/>
-    <sheet name="VORM_$NAME" sheetId="5" state="hidden" r:id="rId7"/>
+    <sheet name="VERS_Configuration" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="VIEW_$NAME" sheetId="4" state="hidden" r:id="rId6"/>
+    <sheet name="VELI_$NAME" sheetId="5" state="hidden" r:id="rId7"/>
+    <sheet name="VORM_$NAME" sheetId="6" state="hidden" r:id="rId8"/>
+    <sheet name="VANT" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="AREA" vbProcedure="false">VINE_Demonstrament!$A$1:$X$8</definedName>
@@ -26,22 +28,32 @@
     <definedName function="false" hidden="false" localSheetId="1" name="MOD_0" vbProcedure="false">'VERS_$NAME'!$A$1:$W$16</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">'VERS_$NAME'!$A$5:$W$16</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_SUP" vbProcedure="false">'VERS_$NAME'!$A$1:$W$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="AREA" vbProcedure="false">'VIEW_$NAME'!$A$1:$AN$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="LMN_0" vbProcedure="false">'VIEW_$NAME'!$C$1:$K$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="LMN_1" vbProcedure="false">'VIEW_$NAME'!$U$1:$AC$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0" vbProcedure="false">'VIEW_$NAME'!$A$1:$AN$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0_COM" vbProcedure="false">'VIEW_$NAME'!$A$5:$AN$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0_SUP" vbProcedure="false">'VIEW_$NAME'!$A$1:$AN$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="AREA" vbProcedure="false">'VELI_$NAME'!$A$1:$W$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="LMN_0" vbProcedure="false">'VELI_$NAME'!$D$1:$L$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="MOD_0" vbProcedure="false">'VELI_$NAME'!$A$1:$W$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="MOD_0_COM" vbProcedure="false">'VELI_$NAME'!$A$5:$W$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="MOD_0_SUP" vbProcedure="false">'VELI_$NAME'!$A$1:$W$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="AREA" vbProcedure="false">'VORM_$NAME'!$A$1:$W$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="LMN_0" vbProcedure="false">'VORM_$NAME'!$D$1:$L$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="MOD_0" vbProcedure="false">'VORM_$NAME'!$A$1:$W$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="MOD_0_COM" vbProcedure="false">'VORM_$NAME'!$A$5:$W$16</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="MOD_0_SUP" vbProcedure="false">'VORM_$NAME'!$A$1:$V$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="AREA" vbProcedure="false">VERS_Configuration!$A$1:$W$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="LMN_0" vbProcedure="false">VERS_Configuration!$D$1:$L$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0" vbProcedure="false">VERS_Configuration!$A$1:$W$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0_COM" vbProcedure="false">VERS_Configuration!$A$5:$W$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0_SUP" vbProcedure="false">VERS_Configuration!$A$1:$W$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="AREA" vbProcedure="false">'VIEW_$NAME'!$A$1:$AN$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="LMN_0" vbProcedure="false">'VIEW_$NAME'!$C$1:$K$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="LMN_1" vbProcedure="false">'VIEW_$NAME'!$U$1:$AC$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="MOD_0" vbProcedure="false">'VIEW_$NAME'!$A$1:$AN$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="MOD_0_COM" vbProcedure="false">'VIEW_$NAME'!$A$5:$AN$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="MOD_0_SUP" vbProcedure="false">'VIEW_$NAME'!$A$1:$AN$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="AREA" vbProcedure="false">'VELI_$NAME'!$A$1:$W$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="LMN_0" vbProcedure="false">'VELI_$NAME'!$D$1:$L$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="MOD_0" vbProcedure="false">'VELI_$NAME'!$A$1:$W$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="MOD_0_COM" vbProcedure="false">'VELI_$NAME'!$A$5:$W$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="MOD_0_SUP" vbProcedure="false">'VELI_$NAME'!$A$1:$W$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="AREA" vbProcedure="false">'VORM_$NAME'!$A$1:$W$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="LMN_0" vbProcedure="false">'VORM_$NAME'!$D$1:$L$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="MOD_0" vbProcedure="false">'VORM_$NAME'!$A$1:$W$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="MOD_0_COM" vbProcedure="false">'VORM_$NAME'!$A$5:$W$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="MOD_0_SUP" vbProcedure="false">'VORM_$NAME'!$A$1:$V$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="AREA" vbProcedure="false">VANT!$A$1:$D$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="LMN_0" vbProcedure="false">VANT!$C$1:$C$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="MOD_0" vbProcedure="false">VANT!$A$1:$D$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="MOD_0_COM" vbProcedure="false">VANT!$A$5:$D$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="MOD_0_SUP" vbProcedure="false">VANT!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -53,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="52">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -204,6 +216,16 @@
   <si>
     <t xml:space="preserve">depos</t>
   </si>
+  <si>
+    <t xml:space="preserve">GIT Ignore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.gitignore
+node_modules
+package-lock.json
+.~lock.*
+demonstration/projects/*/codebase</t>
+  </si>
 </sst>
 </file>
 
@@ -213,7 +235,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -254,12 +276,7 @@
       <color rgb="FFFFFF00"/>
       <name val="FreeMono"/>
       <family val="3"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="FreeMono"/>
-      <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -348,7 +365,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="52">
+  <fills count="54">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,7 +375,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF383333"/>
-        <bgColor rgb="FF3F3E3E"/>
+        <bgColor rgb="FF3C323E"/>
       </patternFill>
     </fill>
     <fill>
@@ -380,9 +397,9 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF837D8C"/>
-        <bgColor rgb="FF8B78C8"/>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FF8B7AC2"/>
+        <bgColor rgb="FF9D9B9A"/>
       </patternFill>
     </fill>
     <fill>
@@ -400,7 +417,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD03A0E"/>
-        <bgColor rgb="FFFF5822"/>
+        <bgColor rgb="FFE64C0A"/>
       </patternFill>
     </fill>
     <fill>
@@ -430,7 +447,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5822"/>
-        <bgColor rgb="FFFE5259"/>
+        <bgColor rgb="FFE64C0A"/>
       </patternFill>
     </fill>
     <fill>
@@ -500,8 +517,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCECF3"/>
+      <patternFill patternType="mediumGray">
+        <fgColor rgb="FFFDECF2"/>
         <bgColor rgb="FFFCECF5"/>
       </patternFill>
     </fill>
@@ -556,12 +573,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E1A5"/>
-        <bgColor rgb="FFDCEDC8"/>
+        <bgColor rgb="FFDBECD1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCEDC8"/>
+        <fgColor rgb="FFDBECD1"/>
         <bgColor rgb="FFC6EAEF"/>
       </patternFill>
     </fill>
@@ -572,21 +589,21 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF402A5E"/>
-        <bgColor rgb="FF383333"/>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FF3B275D"/>
+        <bgColor rgb="FF3C323E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FF8066E2"/>
+        <bgColor rgb="FF8B7AC2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7D68B5"/>
-        <bgColor rgb="FF8B78C8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8B78C8"/>
-        <bgColor rgb="FF7D68B5"/>
+        <fgColor rgb="FF8B7AC2"/>
+        <bgColor rgb="FF8066E2"/>
       </patternFill>
     </fill>
     <fill>
@@ -604,7 +621,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCECF5"/>
-        <bgColor rgb="FFFCECF3"/>
+        <bgColor rgb="FFFDECF2"/>
       </patternFill>
     </fill>
     <fill>
@@ -646,13 +663,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFA591"/>
-        <bgColor rgb="FFF4CDCA"/>
+        <bgColor rgb="FFF6CBCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4CDCA"/>
+        <fgColor rgb="FFF6CBCC"/>
         <bgColor rgb="FFD1C3E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3C323E"/>
+        <bgColor rgb="FF383333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE64C0A"/>
+        <bgColor rgb="FFFF5822"/>
       </patternFill>
     </fill>
   </fills>
@@ -891,14 +920,14 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FF402A5E"/>
+        <color rgb="FF3B275D"/>
       </left>
       <right style="thin">
-        <color rgb="FF402A5E"/>
+        <color rgb="FF3B275D"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF402A5E"/>
+        <color rgb="FF3B275D"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,7 +970,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="358">
+  <cellXfs count="362">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1054,10 +1083,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1098,11 +1123,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1150,23 +1175,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="14" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1622,7 +1647,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1630,7 +1655,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1638,15 +1663,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2026,7 +2051,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2038,15 +2063,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2066,7 +2091,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2214,15 +2239,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2370,8 +2395,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="52" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="52" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="52" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="52" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="53" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2389,57 +2434,57 @@
       <rgbColor rgb="FFF1F8E9"/>
       <rgbColor rgb="FFD4165C"/>
       <rgbColor rgb="FF7CB342"/>
-      <rgbColor rgb="FFBEE8FC"/>
+      <rgbColor rgb="FFC5E1A5"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF4081"/>
       <rgbColor rgb="FF47CAFD"/>
-      <rgbColor rgb="FF8B78C8"/>
+      <rgbColor rgb="FFE64C0A"/>
       <rgbColor rgb="FF3E7A22"/>
-      <rgbColor rgb="FF9EDB64"/>
+      <rgbColor rgb="FF9CCC65"/>
       <rgbColor rgb="FF689F38"/>
       <rgbColor rgb="FFC9155A"/>
       <rgbColor rgb="FF0284D6"/>
       <rgbColor rgb="FFC0BABF"/>
-      <rgbColor rgb="FF837D8C"/>
+      <rgbColor rgb="FF8B7AC2"/>
       <rgbColor rgb="FFA09EAE"/>
       <rgbColor rgb="FFA41153"/>
-      <rgbColor rgb="FFFFECB3"/>
+      <rgbColor rgb="FFFDECF2"/>
       <rgbColor rgb="FFE5F6FE"/>
-      <rgbColor rgb="FF616161"/>
+      <rgbColor rgb="FF424242"/>
       <rgbColor rgb="FFFE5259"/>
       <rgbColor rgb="FF0272C1"/>
       <rgbColor rgb="FFD1C3E7"/>
-      <rgbColor rgb="FFC5E1A5"/>
+      <rgbColor rgb="FF9EDB64"/>
       <rgbColor rgb="FFFD4F6C"/>
       <rgbColor rgb="FFB2FF59"/>
       <rgbColor rgb="FF029AED"/>
-      <rgbColor rgb="FF686261"/>
-      <rgbColor rgb="FF9CCC65"/>
+      <rgbColor rgb="FF616161"/>
+      <rgbColor rgb="FFFF5822"/>
       <rgbColor rgb="FF0292E5"/>
-      <rgbColor rgb="FFFCECF5"/>
+      <rgbColor rgb="FFBEE8FC"/>
       <rgbColor rgb="FF29BBF7"/>
       <rgbColor rgb="FFC6EAEF"/>
-      <rgbColor rgb="FFDCEDC8"/>
-      <rgbColor rgb="FFFCECF3"/>
+      <rgbColor rgb="FFDBECD1"/>
+      <rgbColor rgb="FFFCECF5"/>
       <rgbColor rgb="FF81D4FA"/>
       <rgbColor rgb="FFFFA591"/>
       <rgbColor rgb="FFCCC0DC"/>
-      <rgbColor rgb="FFF4CDCA"/>
-      <rgbColor rgb="FF7C4DFF"/>
+      <rgbColor rgb="FFF6CBCC"/>
+      <rgbColor rgb="FF8066E2"/>
       <rgbColor rgb="FF40C4FF"/>
       <rgbColor rgb="FF8BC34A"/>
       <rgbColor rgb="FFFFD740"/>
-      <rgbColor rgb="FFFF5822"/>
+      <rgbColor rgb="FFFF9100"/>
       <rgbColor rgb="FFFF6F00"/>
-      <rgbColor rgb="FF7D68B5"/>
+      <rgbColor rgb="FF686261"/>
       <rgbColor rgb="FF9D9B9A"/>
       <rgbColor rgb="FF02529A"/>
       <rgbColor rgb="FF538D2D"/>
-      <rgbColor rgb="FF424242"/>
       <rgbColor rgb="FF3F3E3E"/>
+      <rgbColor rgb="FF3C323E"/>
       <rgbColor rgb="FFD03A0E"/>
       <rgbColor rgb="FFB31356"/>
-      <rgbColor rgb="FF402A5E"/>
+      <rgbColor rgb="FF3B275D"/>
       <rgbColor rgb="FF383333"/>
     </indexedColors>
   </colors>
@@ -2560,8 +2605,8 @@
   </sheetPr>
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T41" activeCellId="0" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2760,7 +2805,7 @@
       <c r="B5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="17"/>
@@ -2805,44 +2850,44 @@
         <f aca="false">ROW() - 4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="31" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="33" t="n">
+      <c r="M6" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="N6" s="34" t="n">
+      <c r="N6" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="O6" s="35" t="n">
+      <c r="O6" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="P6" s="36" t="s">
+      <c r="P6" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="33" t="n">
+      <c r="Q6" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="R6" s="34" t="n">
+      <c r="R6" s="33" t="n">
         <v>4</v>
       </c>
-      <c r="S6" s="35" t="n">
+      <c r="S6" s="34" t="n">
         <v>4</v>
       </c>
       <c r="T6" s="24"/>
@@ -2857,44 +2902,44 @@
         <f aca="false">ROW() - 4</f>
         <v>3</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="33" t="n">
+      <c r="M7" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="N7" s="34" t="n">
+      <c r="N7" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="35" t="n">
+      <c r="O7" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="P7" s="36" t="s">
+      <c r="P7" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="33" t="n">
+      <c r="Q7" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="R7" s="34" t="n">
+      <c r="R7" s="33" t="n">
         <v>4</v>
       </c>
-      <c r="S7" s="35" t="n">
+      <c r="S7" s="34" t="n">
         <v>4</v>
       </c>
       <c r="T7" s="24"/>
@@ -2905,8 +2950,8 @@
       <c r="Y7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -2917,15 +2962,15 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
       <c r="T8" s="4"/>
-      <c r="U8" s="38"/>
+      <c r="U8" s="37"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
@@ -2934,44 +2979,44 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="39" t="n">
+      <c r="C9" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="39" t="n">
+      <c r="D9" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="E9" s="39" t="n">
+      <c r="E9" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="39" t="n">
+      <c r="F9" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="G9" s="40" t="n">
+      <c r="G9" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="H9" s="40" t="n">
+      <c r="H9" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="I9" s="40" t="n">
+      <c r="I9" s="39" t="n">
         <v>7</v>
       </c>
-      <c r="J9" s="40" t="n">
+      <c r="J9" s="39" t="n">
         <v>8</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="41"/>
+      <c r="M9" s="40"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
       <c r="Y9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3065,8 +3110,8 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="43" width="7.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="44" width="12.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="7.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="43" width="12.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="1" width="2.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="2" width="3.05"/>
@@ -3076,15 +3121,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="1" width="3.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="5.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="43" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="42" width="4.91"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="3" t="s">
         <v>29</v>
       </c>
@@ -3111,413 +3156,413 @@
       <c r="X1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="48" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
       <c r="W2" s="4"/>
       <c r="X2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="49" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="51" t="s">
+      <c r="N3" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51" t="s">
+      <c r="O3" s="50"/>
+      <c r="P3" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="49" t="s">
+      <c r="Q3" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="50" t="s">
+      <c r="R3" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="S3" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="51" t="s">
+      <c r="T3" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51" t="s">
+      <c r="U3" s="50"/>
+      <c r="V3" s="50" t="s">
         <v>37</v>
       </c>
       <c r="W3" s="4"/>
       <c r="X3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="51" t="s">
+      <c r="O4" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51" t="s">
+      <c r="P4" s="50"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="51" t="s">
+      <c r="U4" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="51"/>
+      <c r="V4" s="50"/>
       <c r="W4" s="4"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
       <c r="W5" s="4"/>
       <c r="X5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="63"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="62"/>
       <c r="W6" s="4"/>
       <c r="X6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="69"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="75"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="74"/>
       <c r="W7" s="4"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="89"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="85"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="84"/>
       <c r="W8" s="4"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="91"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="101"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="97"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="100"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="96"/>
       <c r="W9" s="4"/>
       <c r="X9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="91"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="107"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="107"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="106"/>
       <c r="W10" s="4"/>
       <c r="X10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="91"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="120"/>
-      <c r="S11" s="117"/>
-      <c r="T11" s="121"/>
-      <c r="U11" s="122"/>
-      <c r="V11" s="117"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="120"/>
+      <c r="U11" s="121"/>
+      <c r="V11" s="116"/>
       <c r="W11" s="4"/>
       <c r="X11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="123"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="129"/>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="132"/>
-      <c r="S12" s="129"/>
-      <c r="T12" s="133"/>
-      <c r="U12" s="134"/>
-      <c r="V12" s="129"/>
+      <c r="A12" s="122"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="128"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="131"/>
+      <c r="S12" s="128"/>
+      <c r="T12" s="132"/>
+      <c r="U12" s="133"/>
+      <c r="V12" s="128"/>
       <c r="W12" s="4"/>
       <c r="X12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="137"/>
-      <c r="L13" s="138"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="140"/>
-      <c r="O13" s="140"/>
-      <c r="P13" s="139"/>
-      <c r="Q13" s="141"/>
-      <c r="R13" s="142"/>
-      <c r="S13" s="139"/>
-      <c r="T13" s="143"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="139"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="138"/>
+      <c r="Q13" s="140"/>
+      <c r="R13" s="141"/>
+      <c r="S13" s="138"/>
+      <c r="T13" s="142"/>
+      <c r="U13" s="143"/>
+      <c r="V13" s="138"/>
       <c r="W13" s="4"/>
       <c r="X13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="145"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="149"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="152"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="153"/>
-      <c r="R14" s="154"/>
-      <c r="S14" s="151"/>
-      <c r="T14" s="155"/>
-      <c r="U14" s="156"/>
-      <c r="V14" s="151"/>
+      <c r="A14" s="144"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="149"/>
+      <c r="M14" s="150"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="150"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="150"/>
+      <c r="T14" s="154"/>
+      <c r="U14" s="155"/>
+      <c r="V14" s="150"/>
       <c r="W14" s="4"/>
       <c r="X14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="157"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="161"/>
-      <c r="K15" s="161"/>
-      <c r="L15" s="162"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="163"/>
-      <c r="Q15" s="165"/>
-      <c r="R15" s="166"/>
-      <c r="S15" s="163"/>
-      <c r="T15" s="167"/>
-      <c r="U15" s="168"/>
-      <c r="V15" s="163"/>
+      <c r="A15" s="156"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="160"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="163"/>
+      <c r="O15" s="163"/>
+      <c r="P15" s="162"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="165"/>
+      <c r="S15" s="162"/>
+      <c r="T15" s="166"/>
+      <c r="U15" s="167"/>
+      <c r="V15" s="162"/>
       <c r="W15" s="4"/>
       <c r="X15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="37"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -3527,61 +3572,61 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="36"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
       <c r="W16" s="4"/>
       <c r="X16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="170" t="n">
+      <c r="B17" s="40"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="169" t="n">
         <v>0</v>
       </c>
-      <c r="E17" s="170" t="n">
+      <c r="E17" s="169" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="170" t="n">
+      <c r="F17" s="169" t="n">
         <v>2</v>
       </c>
-      <c r="G17" s="170" t="n">
+      <c r="G17" s="169" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="170" t="n">
+      <c r="H17" s="169" t="n">
         <v>4</v>
       </c>
-      <c r="I17" s="170" t="n">
+      <c r="I17" s="169" t="n">
         <v>5</v>
       </c>
-      <c r="J17" s="170" t="n">
+      <c r="J17" s="169" t="n">
         <v>6</v>
       </c>
-      <c r="K17" s="170" t="n">
+      <c r="K17" s="169" t="n">
         <v>7</v>
       </c>
-      <c r="L17" s="170" t="n">
+      <c r="L17" s="169" t="n">
         <v>8</v>
       </c>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
-      <c r="Q17" s="169"/>
+      <c r="Q17" s="168"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
-      <c r="W17" s="41"/>
+      <c r="W17" s="40"/>
       <c r="X17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3716,6 +3761,671 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF40C4FF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:X34"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="7.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="43" width="12.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="1" width="2.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="5.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="2" width="3.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="5.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="4.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="7.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="5.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="1" width="3.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="5.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="42" width="4.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="4"/>
+      <c r="X3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="50"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="100"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="96"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="90"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="90"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="120"/>
+      <c r="U11" s="121"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="122"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="128"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="131"/>
+      <c r="S12" s="128"/>
+      <c r="T12" s="132"/>
+      <c r="U12" s="133"/>
+      <c r="V12" s="128"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="36"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="138"/>
+      <c r="Q13" s="140"/>
+      <c r="R13" s="141"/>
+      <c r="S13" s="138"/>
+      <c r="T13" s="142"/>
+      <c r="U13" s="143"/>
+      <c r="V13" s="138"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="144"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="149"/>
+      <c r="M14" s="150"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="150"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="150"/>
+      <c r="T14" s="154"/>
+      <c r="U14" s="155"/>
+      <c r="V14" s="150"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="156"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="160"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="163"/>
+      <c r="O15" s="163"/>
+      <c r="P15" s="162"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="165"/>
+      <c r="S15" s="162"/>
+      <c r="T15" s="166"/>
+      <c r="U15" s="167"/>
+      <c r="V15" s="162"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="10"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="36"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="10"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="169" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="169" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="169" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" s="169" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" s="169" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" s="169" t="n">
+        <v>6</v>
+      </c>
+      <c r="K17" s="169" t="n">
+        <v>7</v>
+      </c>
+      <c r="L17" s="169" t="n">
+        <v>8</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="168"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="10"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:P2"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:V4"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="5" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFB2FF59"/>
@@ -3760,29 +4470,29 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
       <c r="T1" s="3" t="s">
         <v>29</v>
       </c>
@@ -3805,802 +4515,802 @@
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
       <c r="AM1" s="3"/>
-      <c r="AN1" s="171"/>
-      <c r="AO1" s="172"/>
+      <c r="AN1" s="170"/>
+      <c r="AO1" s="171"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="47" t="s">
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47" t="s">
+      <c r="R2" s="46"/>
+      <c r="S2" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="47" t="s">
+      <c r="T2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48" t="s">
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="173"/>
-      <c r="AO2" s="172"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="172"/>
+      <c r="AO2" s="171"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="50" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="51" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="49" t="s">
+      <c r="M3" s="50"/>
+      <c r="N3" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="51" t="s">
+      <c r="O3" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="50" t="s">
+      <c r="P3" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="51" t="s">
+      <c r="Q3" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="R3" s="51"/>
-      <c r="S3" s="50" t="s">
+      <c r="R3" s="50"/>
+      <c r="S3" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="49" t="s">
+      <c r="T3" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="50" t="s">
+      <c r="U3" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="51" t="s">
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AE3" s="51" t="s">
+      <c r="AE3" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51" t="s">
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="AH3" s="49" t="s">
+      <c r="AH3" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="AI3" s="50" t="s">
+      <c r="AI3" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="AJ3" s="51" t="s">
+      <c r="AJ3" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AK3" s="51" t="s">
+      <c r="AK3" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="51" t="s">
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="AN3" s="173"/>
-      <c r="AO3" s="172"/>
+      <c r="AN3" s="172"/>
+      <c r="AO3" s="171"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="51" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="M4" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="49"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="51" t="s">
+      <c r="N4" s="48"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="51" t="s">
+      <c r="R4" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="50"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51" t="s">
+      <c r="S4" s="49"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="AF4" s="51" t="s">
+      <c r="AF4" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="51"/>
-      <c r="AK4" s="51" t="s">
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="AL4" s="51" t="s">
+      <c r="AL4" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="171"/>
-      <c r="AO4" s="172"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="170"/>
+      <c r="AO4" s="171"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="174" t="s">
+      <c r="B5" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="174"/>
-      <c r="L5" s="175"/>
-      <c r="M5" s="175"/>
-      <c r="N5" s="176"/>
-      <c r="O5" s="175"/>
-      <c r="P5" s="174"/>
-      <c r="Q5" s="175"/>
-      <c r="R5" s="175"/>
-      <c r="S5" s="174"/>
-      <c r="T5" s="176"/>
-      <c r="U5" s="174"/>
-      <c r="V5" s="174"/>
-      <c r="W5" s="174"/>
-      <c r="X5" s="174"/>
-      <c r="Y5" s="174"/>
-      <c r="Z5" s="174"/>
-      <c r="AA5" s="174"/>
-      <c r="AB5" s="174"/>
-      <c r="AC5" s="174"/>
-      <c r="AD5" s="175"/>
-      <c r="AE5" s="175"/>
-      <c r="AF5" s="175"/>
-      <c r="AG5" s="175"/>
-      <c r="AH5" s="176"/>
-      <c r="AI5" s="174"/>
-      <c r="AJ5" s="175"/>
-      <c r="AK5" s="175"/>
-      <c r="AL5" s="175"/>
-      <c r="AM5" s="175"/>
-      <c r="AN5" s="171"/>
-      <c r="AO5" s="172"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="173"/>
+      <c r="K5" s="173"/>
+      <c r="L5" s="174"/>
+      <c r="M5" s="174"/>
+      <c r="N5" s="175"/>
+      <c r="O5" s="174"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="174"/>
+      <c r="R5" s="174"/>
+      <c r="S5" s="173"/>
+      <c r="T5" s="175"/>
+      <c r="U5" s="173"/>
+      <c r="V5" s="173"/>
+      <c r="W5" s="173"/>
+      <c r="X5" s="173"/>
+      <c r="Y5" s="173"/>
+      <c r="Z5" s="173"/>
+      <c r="AA5" s="173"/>
+      <c r="AB5" s="173"/>
+      <c r="AC5" s="173"/>
+      <c r="AD5" s="174"/>
+      <c r="AE5" s="174"/>
+      <c r="AF5" s="174"/>
+      <c r="AG5" s="174"/>
+      <c r="AH5" s="175"/>
+      <c r="AI5" s="173"/>
+      <c r="AJ5" s="174"/>
+      <c r="AK5" s="174"/>
+      <c r="AL5" s="174"/>
+      <c r="AM5" s="174"/>
+      <c r="AN5" s="170"/>
+      <c r="AO5" s="171"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="178"/>
-      <c r="K6" s="179"/>
-      <c r="L6" s="180"/>
-      <c r="M6" s="181"/>
-      <c r="N6" s="182"/>
-      <c r="O6" s="183"/>
-      <c r="P6" s="184"/>
-      <c r="Q6" s="180"/>
-      <c r="R6" s="181"/>
-      <c r="S6" s="185"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="63"/>
-      <c r="AE6" s="64"/>
-      <c r="AF6" s="64"/>
-      <c r="AG6" s="63"/>
-      <c r="AH6" s="65"/>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="63"/>
-      <c r="AK6" s="67"/>
-      <c r="AL6" s="68"/>
-      <c r="AM6" s="63"/>
-      <c r="AN6" s="171"/>
-      <c r="AO6" s="172"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="178"/>
+      <c r="L6" s="179"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="181"/>
+      <c r="O6" s="182"/>
+      <c r="P6" s="183"/>
+      <c r="Q6" s="179"/>
+      <c r="R6" s="180"/>
+      <c r="S6" s="184"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="60"/>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="64"/>
+      <c r="AI6" s="65"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="66"/>
+      <c r="AL6" s="67"/>
+      <c r="AM6" s="62"/>
+      <c r="AN6" s="170"/>
+      <c r="AO6" s="171"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="69"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
-      <c r="J7" s="187"/>
-      <c r="K7" s="188"/>
-      <c r="L7" s="189"/>
-      <c r="M7" s="190"/>
-      <c r="N7" s="191"/>
-      <c r="O7" s="192"/>
-      <c r="P7" s="193"/>
-      <c r="Q7" s="189"/>
-      <c r="R7" s="190"/>
-      <c r="S7" s="194"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="73"/>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="76"/>
-      <c r="AF7" s="76"/>
-      <c r="AG7" s="75"/>
-      <c r="AH7" s="77"/>
-      <c r="AI7" s="78"/>
-      <c r="AJ7" s="75"/>
-      <c r="AK7" s="79"/>
-      <c r="AL7" s="80"/>
-      <c r="AM7" s="75"/>
-      <c r="AN7" s="171"/>
-      <c r="AO7" s="172"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="187"/>
+      <c r="L7" s="188"/>
+      <c r="M7" s="189"/>
+      <c r="N7" s="190"/>
+      <c r="O7" s="191"/>
+      <c r="P7" s="192"/>
+      <c r="Q7" s="188"/>
+      <c r="R7" s="189"/>
+      <c r="S7" s="193"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="76"/>
+      <c r="AI7" s="77"/>
+      <c r="AJ7" s="74"/>
+      <c r="AK7" s="78"/>
+      <c r="AL7" s="79"/>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="170"/>
+      <c r="AO7" s="171"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="197"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="200"/>
-      <c r="O8" s="201"/>
-      <c r="P8" s="202"/>
-      <c r="Q8" s="198"/>
-      <c r="R8" s="199"/>
-      <c r="S8" s="203"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="83"/>
-      <c r="Y8" s="83"/>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="84"/>
-      <c r="AD8" s="85"/>
-      <c r="AE8" s="86"/>
-      <c r="AF8" s="86"/>
-      <c r="AG8" s="85"/>
-      <c r="AH8" s="87"/>
-      <c r="AI8" s="88"/>
-      <c r="AJ8" s="85"/>
-      <c r="AK8" s="89"/>
-      <c r="AL8" s="90"/>
-      <c r="AM8" s="85"/>
-      <c r="AN8" s="171"/>
-      <c r="AO8" s="172"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="197"/>
+      <c r="M8" s="198"/>
+      <c r="N8" s="199"/>
+      <c r="O8" s="200"/>
+      <c r="P8" s="201"/>
+      <c r="Q8" s="197"/>
+      <c r="R8" s="198"/>
+      <c r="S8" s="202"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="84"/>
+      <c r="AE8" s="85"/>
+      <c r="AF8" s="85"/>
+      <c r="AG8" s="84"/>
+      <c r="AH8" s="86"/>
+      <c r="AI8" s="87"/>
+      <c r="AJ8" s="84"/>
+      <c r="AK8" s="88"/>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="84"/>
+      <c r="AN8" s="170"/>
+      <c r="AO8" s="171"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="91"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="205"/>
-      <c r="E9" s="205"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="205"/>
-      <c r="H9" s="205"/>
-      <c r="I9" s="205"/>
-      <c r="J9" s="205"/>
-      <c r="K9" s="206"/>
-      <c r="L9" s="207"/>
-      <c r="M9" s="208"/>
-      <c r="N9" s="209"/>
-      <c r="O9" s="210"/>
-      <c r="P9" s="211"/>
-      <c r="Q9" s="207"/>
-      <c r="R9" s="208"/>
-      <c r="S9" s="212"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="94"/>
-      <c r="V9" s="95"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="95"/>
-      <c r="Y9" s="95"/>
-      <c r="Z9" s="95"/>
-      <c r="AA9" s="95"/>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="96"/>
-      <c r="AD9" s="97"/>
-      <c r="AE9" s="98"/>
-      <c r="AF9" s="98"/>
-      <c r="AG9" s="97"/>
-      <c r="AH9" s="99"/>
-      <c r="AI9" s="100"/>
-      <c r="AJ9" s="97"/>
-      <c r="AK9" s="101"/>
-      <c r="AL9" s="102"/>
-      <c r="AM9" s="97"/>
-      <c r="AN9" s="171"/>
-      <c r="AO9" s="172"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="203"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="204"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="204"/>
+      <c r="K9" s="205"/>
+      <c r="L9" s="206"/>
+      <c r="M9" s="207"/>
+      <c r="N9" s="208"/>
+      <c r="O9" s="209"/>
+      <c r="P9" s="210"/>
+      <c r="Q9" s="206"/>
+      <c r="R9" s="207"/>
+      <c r="S9" s="211"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="95"/>
+      <c r="AD9" s="96"/>
+      <c r="AE9" s="97"/>
+      <c r="AF9" s="97"/>
+      <c r="AG9" s="96"/>
+      <c r="AH9" s="98"/>
+      <c r="AI9" s="99"/>
+      <c r="AJ9" s="96"/>
+      <c r="AK9" s="100"/>
+      <c r="AL9" s="101"/>
+      <c r="AM9" s="96"/>
+      <c r="AN9" s="170"/>
+      <c r="AO9" s="171"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="91"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="213"/>
-      <c r="D10" s="214"/>
-      <c r="E10" s="214"/>
-      <c r="F10" s="214"/>
-      <c r="G10" s="214"/>
-      <c r="H10" s="214"/>
-      <c r="I10" s="214"/>
-      <c r="J10" s="214"/>
-      <c r="K10" s="215"/>
-      <c r="L10" s="216"/>
-      <c r="M10" s="217"/>
-      <c r="N10" s="218"/>
-      <c r="O10" s="219"/>
-      <c r="P10" s="220"/>
-      <c r="Q10" s="216"/>
-      <c r="R10" s="217"/>
-      <c r="S10" s="221"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="105"/>
-      <c r="W10" s="105"/>
-      <c r="X10" s="105"/>
-      <c r="Y10" s="105"/>
-      <c r="Z10" s="105"/>
-      <c r="AA10" s="105"/>
-      <c r="AB10" s="105"/>
-      <c r="AC10" s="106"/>
-      <c r="AD10" s="107"/>
-      <c r="AE10" s="108"/>
-      <c r="AF10" s="108"/>
-      <c r="AG10" s="107"/>
-      <c r="AH10" s="109"/>
-      <c r="AI10" s="110"/>
-      <c r="AJ10" s="107"/>
-      <c r="AK10" s="111"/>
-      <c r="AL10" s="112"/>
-      <c r="AM10" s="107"/>
-      <c r="AN10" s="171"/>
-      <c r="AO10" s="172"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="212"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="213"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="214"/>
+      <c r="L10" s="215"/>
+      <c r="M10" s="216"/>
+      <c r="N10" s="217"/>
+      <c r="O10" s="218"/>
+      <c r="P10" s="219"/>
+      <c r="Q10" s="215"/>
+      <c r="R10" s="216"/>
+      <c r="S10" s="220"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="103"/>
+      <c r="V10" s="104"/>
+      <c r="W10" s="104"/>
+      <c r="X10" s="104"/>
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="104"/>
+      <c r="AA10" s="104"/>
+      <c r="AB10" s="104"/>
+      <c r="AC10" s="105"/>
+      <c r="AD10" s="106"/>
+      <c r="AE10" s="107"/>
+      <c r="AF10" s="107"/>
+      <c r="AG10" s="106"/>
+      <c r="AH10" s="108"/>
+      <c r="AI10" s="109"/>
+      <c r="AJ10" s="106"/>
+      <c r="AK10" s="110"/>
+      <c r="AL10" s="111"/>
+      <c r="AM10" s="106"/>
+      <c r="AN10" s="170"/>
+      <c r="AO10" s="171"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="91"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="222"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="223"/>
-      <c r="I11" s="223"/>
-      <c r="J11" s="223"/>
-      <c r="K11" s="224"/>
-      <c r="L11" s="225"/>
-      <c r="M11" s="226"/>
-      <c r="N11" s="227"/>
-      <c r="O11" s="228"/>
-      <c r="P11" s="229"/>
-      <c r="Q11" s="225"/>
-      <c r="R11" s="226"/>
-      <c r="S11" s="230"/>
-      <c r="T11" s="113"/>
-      <c r="U11" s="114"/>
-      <c r="V11" s="115"/>
-      <c r="W11" s="115"/>
-      <c r="X11" s="115"/>
-      <c r="Y11" s="115"/>
-      <c r="Z11" s="115"/>
-      <c r="AA11" s="115"/>
-      <c r="AB11" s="115"/>
-      <c r="AC11" s="116"/>
-      <c r="AD11" s="117"/>
-      <c r="AE11" s="118"/>
-      <c r="AF11" s="118"/>
-      <c r="AG11" s="117"/>
-      <c r="AH11" s="119"/>
-      <c r="AI11" s="120"/>
-      <c r="AJ11" s="117"/>
-      <c r="AK11" s="121"/>
-      <c r="AL11" s="122"/>
-      <c r="AM11" s="117"/>
-      <c r="AN11" s="171"/>
-      <c r="AO11" s="172"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="222"/>
+      <c r="H11" s="222"/>
+      <c r="I11" s="222"/>
+      <c r="J11" s="222"/>
+      <c r="K11" s="223"/>
+      <c r="L11" s="224"/>
+      <c r="M11" s="225"/>
+      <c r="N11" s="226"/>
+      <c r="O11" s="227"/>
+      <c r="P11" s="228"/>
+      <c r="Q11" s="224"/>
+      <c r="R11" s="225"/>
+      <c r="S11" s="229"/>
+      <c r="T11" s="112"/>
+      <c r="U11" s="113"/>
+      <c r="V11" s="114"/>
+      <c r="W11" s="114"/>
+      <c r="X11" s="114"/>
+      <c r="Y11" s="114"/>
+      <c r="Z11" s="114"/>
+      <c r="AA11" s="114"/>
+      <c r="AB11" s="114"/>
+      <c r="AC11" s="115"/>
+      <c r="AD11" s="116"/>
+      <c r="AE11" s="117"/>
+      <c r="AF11" s="117"/>
+      <c r="AG11" s="116"/>
+      <c r="AH11" s="118"/>
+      <c r="AI11" s="119"/>
+      <c r="AJ11" s="116"/>
+      <c r="AK11" s="120"/>
+      <c r="AL11" s="121"/>
+      <c r="AM11" s="116"/>
+      <c r="AN11" s="170"/>
+      <c r="AO11" s="171"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="123"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="231"/>
-      <c r="D12" s="232"/>
-      <c r="E12" s="232"/>
-      <c r="F12" s="232"/>
-      <c r="G12" s="232"/>
-      <c r="H12" s="232"/>
-      <c r="I12" s="232"/>
-      <c r="J12" s="232"/>
-      <c r="K12" s="233"/>
-      <c r="L12" s="234"/>
-      <c r="M12" s="235"/>
-      <c r="N12" s="236"/>
-      <c r="O12" s="237"/>
-      <c r="P12" s="238"/>
-      <c r="Q12" s="234"/>
-      <c r="R12" s="235"/>
-      <c r="S12" s="239"/>
-      <c r="T12" s="125"/>
-      <c r="U12" s="126"/>
-      <c r="V12" s="127"/>
-      <c r="W12" s="127"/>
-      <c r="X12" s="127"/>
-      <c r="Y12" s="127"/>
-      <c r="Z12" s="127"/>
-      <c r="AA12" s="127"/>
-      <c r="AB12" s="127"/>
-      <c r="AC12" s="128"/>
-      <c r="AD12" s="129"/>
-      <c r="AE12" s="130"/>
-      <c r="AF12" s="130"/>
-      <c r="AG12" s="129"/>
-      <c r="AH12" s="131"/>
-      <c r="AI12" s="132"/>
-      <c r="AJ12" s="129"/>
-      <c r="AK12" s="133"/>
-      <c r="AL12" s="134"/>
-      <c r="AM12" s="129"/>
-      <c r="AN12" s="171"/>
-      <c r="AO12" s="172"/>
+      <c r="A12" s="122"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="230"/>
+      <c r="D12" s="231"/>
+      <c r="E12" s="231"/>
+      <c r="F12" s="231"/>
+      <c r="G12" s="231"/>
+      <c r="H12" s="231"/>
+      <c r="I12" s="231"/>
+      <c r="J12" s="231"/>
+      <c r="K12" s="232"/>
+      <c r="L12" s="233"/>
+      <c r="M12" s="234"/>
+      <c r="N12" s="235"/>
+      <c r="O12" s="236"/>
+      <c r="P12" s="237"/>
+      <c r="Q12" s="233"/>
+      <c r="R12" s="234"/>
+      <c r="S12" s="238"/>
+      <c r="T12" s="124"/>
+      <c r="U12" s="125"/>
+      <c r="V12" s="126"/>
+      <c r="W12" s="126"/>
+      <c r="X12" s="126"/>
+      <c r="Y12" s="126"/>
+      <c r="Z12" s="126"/>
+      <c r="AA12" s="126"/>
+      <c r="AB12" s="126"/>
+      <c r="AC12" s="127"/>
+      <c r="AD12" s="128"/>
+      <c r="AE12" s="129"/>
+      <c r="AF12" s="129"/>
+      <c r="AG12" s="128"/>
+      <c r="AH12" s="130"/>
+      <c r="AI12" s="131"/>
+      <c r="AJ12" s="128"/>
+      <c r="AK12" s="132"/>
+      <c r="AL12" s="133"/>
+      <c r="AM12" s="128"/>
+      <c r="AN12" s="170"/>
+      <c r="AO12" s="171"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="240"/>
-      <c r="D13" s="241"/>
-      <c r="E13" s="241"/>
-      <c r="F13" s="241"/>
-      <c r="G13" s="241"/>
-      <c r="H13" s="241"/>
-      <c r="I13" s="241"/>
-      <c r="J13" s="241"/>
-      <c r="K13" s="242"/>
-      <c r="L13" s="243"/>
-      <c r="M13" s="244"/>
-      <c r="N13" s="245"/>
-      <c r="O13" s="246"/>
-      <c r="P13" s="247"/>
-      <c r="Q13" s="243"/>
-      <c r="R13" s="244"/>
-      <c r="S13" s="248"/>
-      <c r="T13" s="135"/>
-      <c r="U13" s="136"/>
-      <c r="V13" s="137"/>
-      <c r="W13" s="137"/>
-      <c r="X13" s="137"/>
-      <c r="Y13" s="137"/>
-      <c r="Z13" s="137"/>
-      <c r="AA13" s="137"/>
-      <c r="AB13" s="137"/>
-      <c r="AC13" s="138"/>
-      <c r="AD13" s="139"/>
-      <c r="AE13" s="140"/>
-      <c r="AF13" s="140"/>
-      <c r="AG13" s="139"/>
-      <c r="AH13" s="141"/>
-      <c r="AI13" s="142"/>
-      <c r="AJ13" s="139"/>
-      <c r="AK13" s="143"/>
-      <c r="AL13" s="144"/>
-      <c r="AM13" s="139"/>
-      <c r="AN13" s="171"/>
-      <c r="AO13" s="172"/>
+      <c r="C13" s="239"/>
+      <c r="D13" s="240"/>
+      <c r="E13" s="240"/>
+      <c r="F13" s="240"/>
+      <c r="G13" s="240"/>
+      <c r="H13" s="240"/>
+      <c r="I13" s="240"/>
+      <c r="J13" s="240"/>
+      <c r="K13" s="241"/>
+      <c r="L13" s="242"/>
+      <c r="M13" s="243"/>
+      <c r="N13" s="244"/>
+      <c r="O13" s="245"/>
+      <c r="P13" s="246"/>
+      <c r="Q13" s="242"/>
+      <c r="R13" s="243"/>
+      <c r="S13" s="247"/>
+      <c r="T13" s="134"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="136"/>
+      <c r="W13" s="136"/>
+      <c r="X13" s="136"/>
+      <c r="Y13" s="136"/>
+      <c r="Z13" s="136"/>
+      <c r="AA13" s="136"/>
+      <c r="AB13" s="136"/>
+      <c r="AC13" s="137"/>
+      <c r="AD13" s="138"/>
+      <c r="AE13" s="139"/>
+      <c r="AF13" s="139"/>
+      <c r="AG13" s="138"/>
+      <c r="AH13" s="140"/>
+      <c r="AI13" s="141"/>
+      <c r="AJ13" s="138"/>
+      <c r="AK13" s="142"/>
+      <c r="AL13" s="143"/>
+      <c r="AM13" s="138"/>
+      <c r="AN13" s="170"/>
+      <c r="AO13" s="171"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="145"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="249"/>
-      <c r="D14" s="250"/>
-      <c r="E14" s="250"/>
-      <c r="F14" s="250"/>
-      <c r="G14" s="250"/>
-      <c r="H14" s="250"/>
-      <c r="I14" s="250"/>
-      <c r="J14" s="250"/>
-      <c r="K14" s="251"/>
-      <c r="L14" s="252"/>
-      <c r="M14" s="253"/>
-      <c r="N14" s="254"/>
-      <c r="O14" s="255"/>
-      <c r="P14" s="256"/>
-      <c r="Q14" s="252"/>
-      <c r="R14" s="253"/>
-      <c r="S14" s="257"/>
-      <c r="T14" s="147"/>
-      <c r="U14" s="148"/>
-      <c r="V14" s="149"/>
-      <c r="W14" s="149"/>
-      <c r="X14" s="149"/>
-      <c r="Y14" s="149"/>
-      <c r="Z14" s="149"/>
-      <c r="AA14" s="149"/>
-      <c r="AB14" s="149"/>
-      <c r="AC14" s="150"/>
-      <c r="AD14" s="151"/>
-      <c r="AE14" s="152"/>
-      <c r="AF14" s="152"/>
-      <c r="AG14" s="151"/>
-      <c r="AH14" s="153"/>
-      <c r="AI14" s="154"/>
-      <c r="AJ14" s="151"/>
-      <c r="AK14" s="155"/>
-      <c r="AL14" s="156"/>
-      <c r="AM14" s="151"/>
-      <c r="AN14" s="171"/>
-      <c r="AO14" s="172"/>
+      <c r="A14" s="144"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="248"/>
+      <c r="D14" s="249"/>
+      <c r="E14" s="249"/>
+      <c r="F14" s="249"/>
+      <c r="G14" s="249"/>
+      <c r="H14" s="249"/>
+      <c r="I14" s="249"/>
+      <c r="J14" s="249"/>
+      <c r="K14" s="250"/>
+      <c r="L14" s="251"/>
+      <c r="M14" s="252"/>
+      <c r="N14" s="253"/>
+      <c r="O14" s="254"/>
+      <c r="P14" s="255"/>
+      <c r="Q14" s="251"/>
+      <c r="R14" s="252"/>
+      <c r="S14" s="256"/>
+      <c r="T14" s="146"/>
+      <c r="U14" s="147"/>
+      <c r="V14" s="148"/>
+      <c r="W14" s="148"/>
+      <c r="X14" s="148"/>
+      <c r="Y14" s="148"/>
+      <c r="Z14" s="148"/>
+      <c r="AA14" s="148"/>
+      <c r="AB14" s="148"/>
+      <c r="AC14" s="149"/>
+      <c r="AD14" s="150"/>
+      <c r="AE14" s="151"/>
+      <c r="AF14" s="151"/>
+      <c r="AG14" s="150"/>
+      <c r="AH14" s="152"/>
+      <c r="AI14" s="153"/>
+      <c r="AJ14" s="150"/>
+      <c r="AK14" s="154"/>
+      <c r="AL14" s="155"/>
+      <c r="AM14" s="150"/>
+      <c r="AN14" s="170"/>
+      <c r="AO14" s="171"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="157"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="258"/>
-      <c r="D15" s="259"/>
-      <c r="E15" s="259"/>
-      <c r="F15" s="259"/>
-      <c r="G15" s="259"/>
-      <c r="H15" s="259"/>
-      <c r="I15" s="259"/>
-      <c r="J15" s="259"/>
-      <c r="K15" s="260"/>
-      <c r="L15" s="261"/>
-      <c r="M15" s="262"/>
-      <c r="N15" s="263"/>
-      <c r="O15" s="264"/>
-      <c r="P15" s="265"/>
-      <c r="Q15" s="261"/>
-      <c r="R15" s="262"/>
-      <c r="S15" s="266"/>
-      <c r="T15" s="159"/>
-      <c r="U15" s="160"/>
-      <c r="V15" s="161"/>
-      <c r="W15" s="161"/>
-      <c r="X15" s="161"/>
-      <c r="Y15" s="161"/>
-      <c r="Z15" s="161"/>
-      <c r="AA15" s="161"/>
-      <c r="AB15" s="161"/>
-      <c r="AC15" s="162"/>
-      <c r="AD15" s="163"/>
-      <c r="AE15" s="164"/>
-      <c r="AF15" s="164"/>
-      <c r="AG15" s="163"/>
-      <c r="AH15" s="165"/>
-      <c r="AI15" s="166"/>
-      <c r="AJ15" s="163"/>
-      <c r="AK15" s="167"/>
-      <c r="AL15" s="168"/>
-      <c r="AM15" s="163"/>
-      <c r="AN15" s="171"/>
-      <c r="AO15" s="172"/>
+      <c r="A15" s="156"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="257"/>
+      <c r="D15" s="258"/>
+      <c r="E15" s="258"/>
+      <c r="F15" s="258"/>
+      <c r="G15" s="258"/>
+      <c r="H15" s="258"/>
+      <c r="I15" s="258"/>
+      <c r="J15" s="258"/>
+      <c r="K15" s="259"/>
+      <c r="L15" s="260"/>
+      <c r="M15" s="261"/>
+      <c r="N15" s="262"/>
+      <c r="O15" s="263"/>
+      <c r="P15" s="264"/>
+      <c r="Q15" s="260"/>
+      <c r="R15" s="261"/>
+      <c r="S15" s="265"/>
+      <c r="T15" s="158"/>
+      <c r="U15" s="159"/>
+      <c r="V15" s="160"/>
+      <c r="W15" s="160"/>
+      <c r="X15" s="160"/>
+      <c r="Y15" s="160"/>
+      <c r="Z15" s="160"/>
+      <c r="AA15" s="160"/>
+      <c r="AB15" s="160"/>
+      <c r="AC15" s="161"/>
+      <c r="AD15" s="162"/>
+      <c r="AE15" s="163"/>
+      <c r="AF15" s="163"/>
+      <c r="AG15" s="162"/>
+      <c r="AH15" s="164"/>
+      <c r="AI15" s="165"/>
+      <c r="AJ15" s="162"/>
+      <c r="AK15" s="166"/>
+      <c r="AL15" s="167"/>
+      <c r="AM15" s="162"/>
+      <c r="AN15" s="170"/>
+      <c r="AO15" s="171"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="123"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="173"/>
-      <c r="L16" s="267"/>
-      <c r="M16" s="173"/>
-      <c r="N16" s="267"/>
-      <c r="O16" s="268"/>
-      <c r="P16" s="173"/>
-      <c r="Q16" s="268"/>
-      <c r="R16" s="268"/>
-      <c r="S16" s="124"/>
-      <c r="T16" s="267"/>
-      <c r="U16" s="173"/>
-      <c r="V16" s="173"/>
-      <c r="W16" s="173"/>
-      <c r="X16" s="173"/>
-      <c r="Y16" s="173"/>
-      <c r="Z16" s="173"/>
-      <c r="AA16" s="173"/>
-      <c r="AB16" s="173"/>
-      <c r="AC16" s="173"/>
-      <c r="AD16" s="269"/>
-      <c r="AE16" s="268"/>
-      <c r="AF16" s="268"/>
-      <c r="AG16" s="268"/>
-      <c r="AH16" s="267"/>
-      <c r="AI16" s="173"/>
-      <c r="AJ16" s="269"/>
-      <c r="AK16" s="268"/>
-      <c r="AL16" s="268"/>
-      <c r="AM16" s="268"/>
-      <c r="AN16" s="171"/>
-      <c r="AO16" s="172"/>
+      <c r="A16" s="122"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="172"/>
+      <c r="L16" s="266"/>
+      <c r="M16" s="172"/>
+      <c r="N16" s="266"/>
+      <c r="O16" s="267"/>
+      <c r="P16" s="172"/>
+      <c r="Q16" s="267"/>
+      <c r="R16" s="267"/>
+      <c r="S16" s="123"/>
+      <c r="T16" s="266"/>
+      <c r="U16" s="172"/>
+      <c r="V16" s="172"/>
+      <c r="W16" s="172"/>
+      <c r="X16" s="172"/>
+      <c r="Y16" s="172"/>
+      <c r="Z16" s="172"/>
+      <c r="AA16" s="172"/>
+      <c r="AB16" s="172"/>
+      <c r="AC16" s="172"/>
+      <c r="AD16" s="268"/>
+      <c r="AE16" s="267"/>
+      <c r="AF16" s="267"/>
+      <c r="AG16" s="267"/>
+      <c r="AH16" s="266"/>
+      <c r="AI16" s="172"/>
+      <c r="AJ16" s="268"/>
+      <c r="AK16" s="267"/>
+      <c r="AL16" s="267"/>
+      <c r="AM16" s="267"/>
+      <c r="AN16" s="170"/>
+      <c r="AO16" s="171"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="270"/>
-      <c r="B17" s="270"/>
-      <c r="C17" s="271" t="n">
+      <c r="A17" s="269"/>
+      <c r="B17" s="269"/>
+      <c r="C17" s="270" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="271" t="n">
+      <c r="D17" s="270" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="271" t="n">
+      <c r="E17" s="270" t="n">
         <v>2</v>
       </c>
-      <c r="F17" s="271" t="n">
+      <c r="F17" s="270" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="271" t="n">
+      <c r="G17" s="270" t="n">
         <v>4</v>
       </c>
-      <c r="H17" s="271" t="n">
+      <c r="H17" s="270" t="n">
         <v>5</v>
       </c>
-      <c r="I17" s="271" t="n">
+      <c r="I17" s="270" t="n">
         <v>6</v>
       </c>
-      <c r="J17" s="271" t="n">
+      <c r="J17" s="270" t="n">
         <v>7</v>
       </c>
-      <c r="K17" s="271" t="n">
+      <c r="K17" s="270" t="n">
         <v>8</v>
       </c>
-      <c r="L17" s="272"/>
-      <c r="M17" s="272"/>
-      <c r="N17" s="272"/>
-      <c r="O17" s="272"/>
-      <c r="P17" s="272"/>
-      <c r="Q17" s="272"/>
-      <c r="R17" s="272"/>
-      <c r="S17" s="272"/>
-      <c r="T17" s="273"/>
-      <c r="U17" s="170" t="n">
+      <c r="L17" s="271"/>
+      <c r="M17" s="271"/>
+      <c r="N17" s="271"/>
+      <c r="O17" s="271"/>
+      <c r="P17" s="271"/>
+      <c r="Q17" s="271"/>
+      <c r="R17" s="271"/>
+      <c r="S17" s="271"/>
+      <c r="T17" s="272"/>
+      <c r="U17" s="169" t="n">
         <v>0</v>
       </c>
-      <c r="V17" s="170" t="n">
+      <c r="V17" s="169" t="n">
         <v>1</v>
       </c>
-      <c r="W17" s="170" t="n">
+      <c r="W17" s="169" t="n">
         <v>2</v>
       </c>
-      <c r="X17" s="170" t="n">
+      <c r="X17" s="169" t="n">
         <v>3</v>
       </c>
-      <c r="Y17" s="170" t="n">
+      <c r="Y17" s="169" t="n">
         <v>4</v>
       </c>
-      <c r="Z17" s="170" t="n">
+      <c r="Z17" s="169" t="n">
         <v>5</v>
       </c>
-      <c r="AA17" s="170" t="n">
+      <c r="AA17" s="169" t="n">
         <v>6</v>
       </c>
-      <c r="AB17" s="170" t="n">
+      <c r="AB17" s="169" t="n">
         <v>7</v>
       </c>
-      <c r="AC17" s="170" t="n">
+      <c r="AC17" s="169" t="n">
         <v>8</v>
       </c>
-      <c r="AD17" s="274"/>
-      <c r="AE17" s="275"/>
-      <c r="AF17" s="274"/>
-      <c r="AG17" s="274"/>
-      <c r="AH17" s="273"/>
-      <c r="AI17" s="270"/>
-      <c r="AJ17" s="276"/>
-      <c r="AK17" s="276"/>
-      <c r="AL17" s="276"/>
-      <c r="AM17" s="276"/>
-      <c r="AN17" s="172"/>
-      <c r="AO17" s="172"/>
+      <c r="AD17" s="273"/>
+      <c r="AE17" s="274"/>
+      <c r="AF17" s="273"/>
+      <c r="AG17" s="273"/>
+      <c r="AH17" s="272"/>
+      <c r="AI17" s="269"/>
+      <c r="AJ17" s="275"/>
+      <c r="AK17" s="275"/>
+      <c r="AL17" s="275"/>
+      <c r="AM17" s="275"/>
+      <c r="AN17" s="171"/>
+      <c r="AO17" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -4642,7 +5352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FF7C4DFF"/>
@@ -4659,8 +5369,8 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="43" width="6.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="44" width="4.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="6.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="43" width="4.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="1" width="2.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="2" width="3.05"/>
@@ -4670,15 +5380,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="4.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="1" width="4.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="5.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="43" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="42" width="4.91"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="3" t="s">
         <v>29</v>
       </c>
@@ -4701,7 +5411,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
-      <c r="W1" s="124"/>
+      <c r="W1" s="123"/>
       <c r="X1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4727,455 +5437,455 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="277" t="s">
+      <c r="Q2" s="276" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="277"/>
-      <c r="S2" s="277"/>
-      <c r="T2" s="277"/>
-      <c r="U2" s="277"/>
-      <c r="V2" s="277"/>
-      <c r="W2" s="124"/>
+      <c r="R2" s="276"/>
+      <c r="S2" s="276"/>
+      <c r="T2" s="276"/>
+      <c r="U2" s="276"/>
+      <c r="V2" s="276"/>
+      <c r="W2" s="123"/>
       <c r="X2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="278" t="s">
+      <c r="C3" s="277" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="279" t="s">
+      <c r="D3" s="278" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="279"/>
-      <c r="F3" s="279"/>
-      <c r="G3" s="279"/>
-      <c r="H3" s="279"/>
-      <c r="I3" s="279"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="279"/>
-      <c r="L3" s="279"/>
-      <c r="M3" s="278" t="s">
+      <c r="E3" s="278"/>
+      <c r="F3" s="278"/>
+      <c r="G3" s="278"/>
+      <c r="H3" s="278"/>
+      <c r="I3" s="278"/>
+      <c r="J3" s="278"/>
+      <c r="K3" s="278"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="277" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="278" t="s">
+      <c r="N3" s="277" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="278"/>
-      <c r="P3" s="278" t="s">
+      <c r="O3" s="277"/>
+      <c r="P3" s="277" t="s">
         <v>37</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="279" t="s">
+      <c r="R3" s="278" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="279" t="s">
+      <c r="S3" s="278" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="279" t="s">
+      <c r="T3" s="278" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="279"/>
-      <c r="V3" s="279" t="s">
+      <c r="U3" s="278"/>
+      <c r="V3" s="278" t="s">
         <v>37</v>
       </c>
-      <c r="W3" s="124"/>
+      <c r="W3" s="123"/>
       <c r="X3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="279"/>
-      <c r="H4" s="279"/>
-      <c r="I4" s="279"/>
-      <c r="J4" s="279"/>
-      <c r="K4" s="279"/>
-      <c r="L4" s="279"/>
-      <c r="M4" s="278"/>
-      <c r="N4" s="50" t="s">
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="278"/>
+      <c r="H4" s="278"/>
+      <c r="I4" s="278"/>
+      <c r="J4" s="278"/>
+      <c r="K4" s="278"/>
+      <c r="L4" s="278"/>
+      <c r="M4" s="277"/>
+      <c r="N4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="50" t="s">
+      <c r="O4" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="278"/>
+      <c r="P4" s="277"/>
       <c r="Q4" s="12"/>
-      <c r="R4" s="279"/>
-      <c r="S4" s="279"/>
-      <c r="T4" s="280" t="s">
+      <c r="R4" s="278"/>
+      <c r="S4" s="278"/>
+      <c r="T4" s="279" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="280" t="s">
+      <c r="U4" s="279" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="279"/>
-      <c r="W4" s="124"/>
+      <c r="V4" s="278"/>
+      <c r="W4" s="123"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="174" t="s">
+      <c r="B5" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="281"/>
-      <c r="D5" s="281"/>
-      <c r="E5" s="281"/>
-      <c r="F5" s="281"/>
-      <c r="G5" s="281"/>
-      <c r="H5" s="281"/>
-      <c r="I5" s="281"/>
-      <c r="J5" s="281"/>
-      <c r="K5" s="281"/>
-      <c r="L5" s="281"/>
-      <c r="M5" s="281"/>
-      <c r="N5" s="281"/>
-      <c r="O5" s="281"/>
-      <c r="P5" s="281"/>
-      <c r="Q5" s="281"/>
-      <c r="R5" s="281"/>
-      <c r="S5" s="281"/>
-      <c r="T5" s="281"/>
-      <c r="U5" s="281"/>
-      <c r="V5" s="281"/>
-      <c r="W5" s="124"/>
+      <c r="C5" s="280"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="280"/>
+      <c r="I5" s="280"/>
+      <c r="J5" s="280"/>
+      <c r="K5" s="280"/>
+      <c r="L5" s="280"/>
+      <c r="M5" s="280"/>
+      <c r="N5" s="280"/>
+      <c r="O5" s="280"/>
+      <c r="P5" s="280"/>
+      <c r="Q5" s="280"/>
+      <c r="R5" s="280"/>
+      <c r="S5" s="280"/>
+      <c r="T5" s="280"/>
+      <c r="U5" s="280"/>
+      <c r="V5" s="280"/>
+      <c r="W5" s="123"/>
       <c r="X5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="282"/>
-      <c r="D6" s="283"/>
-      <c r="E6" s="283"/>
-      <c r="F6" s="283"/>
-      <c r="G6" s="283"/>
-      <c r="H6" s="283"/>
-      <c r="I6" s="283"/>
-      <c r="J6" s="283"/>
-      <c r="K6" s="283"/>
-      <c r="L6" s="283"/>
-      <c r="M6" s="284"/>
-      <c r="N6" s="285"/>
-      <c r="O6" s="286"/>
-      <c r="P6" s="287"/>
-      <c r="Q6" s="282"/>
-      <c r="R6" s="283"/>
-      <c r="S6" s="284"/>
-      <c r="T6" s="285"/>
-      <c r="U6" s="286"/>
-      <c r="V6" s="287"/>
-      <c r="W6" s="124"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="281"/>
+      <c r="D6" s="282"/>
+      <c r="E6" s="282"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
+      <c r="H6" s="282"/>
+      <c r="I6" s="282"/>
+      <c r="J6" s="282"/>
+      <c r="K6" s="282"/>
+      <c r="L6" s="282"/>
+      <c r="M6" s="283"/>
+      <c r="N6" s="284"/>
+      <c r="O6" s="285"/>
+      <c r="P6" s="286"/>
+      <c r="Q6" s="281"/>
+      <c r="R6" s="282"/>
+      <c r="S6" s="283"/>
+      <c r="T6" s="284"/>
+      <c r="U6" s="285"/>
+      <c r="V6" s="286"/>
+      <c r="W6" s="123"/>
       <c r="X6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="69"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="282"/>
-      <c r="D7" s="283"/>
-      <c r="E7" s="283"/>
-      <c r="F7" s="283"/>
-      <c r="G7" s="283"/>
-      <c r="H7" s="283"/>
-      <c r="I7" s="283"/>
-      <c r="J7" s="283"/>
-      <c r="K7" s="283"/>
-      <c r="L7" s="283"/>
-      <c r="M7" s="284"/>
-      <c r="N7" s="285"/>
-      <c r="O7" s="286"/>
-      <c r="P7" s="287"/>
-      <c r="Q7" s="282"/>
-      <c r="R7" s="283"/>
-      <c r="S7" s="284"/>
-      <c r="T7" s="285"/>
-      <c r="U7" s="286"/>
-      <c r="V7" s="287"/>
-      <c r="W7" s="124"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="281"/>
+      <c r="D7" s="282"/>
+      <c r="E7" s="282"/>
+      <c r="F7" s="282"/>
+      <c r="G7" s="282"/>
+      <c r="H7" s="282"/>
+      <c r="I7" s="282"/>
+      <c r="J7" s="282"/>
+      <c r="K7" s="282"/>
+      <c r="L7" s="282"/>
+      <c r="M7" s="283"/>
+      <c r="N7" s="284"/>
+      <c r="O7" s="285"/>
+      <c r="P7" s="286"/>
+      <c r="Q7" s="281"/>
+      <c r="R7" s="282"/>
+      <c r="S7" s="283"/>
+      <c r="T7" s="284"/>
+      <c r="U7" s="285"/>
+      <c r="V7" s="286"/>
+      <c r="W7" s="123"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="282"/>
-      <c r="D8" s="283"/>
-      <c r="E8" s="283"/>
-      <c r="F8" s="283"/>
-      <c r="G8" s="283"/>
-      <c r="H8" s="283"/>
-      <c r="I8" s="283"/>
-      <c r="J8" s="283"/>
-      <c r="K8" s="283"/>
-      <c r="L8" s="283"/>
-      <c r="M8" s="284"/>
-      <c r="N8" s="285"/>
-      <c r="O8" s="286"/>
-      <c r="P8" s="287"/>
-      <c r="Q8" s="282"/>
-      <c r="R8" s="283"/>
-      <c r="S8" s="284"/>
-      <c r="T8" s="285"/>
-      <c r="U8" s="286"/>
-      <c r="V8" s="287"/>
-      <c r="W8" s="124"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="281"/>
+      <c r="D8" s="282"/>
+      <c r="E8" s="282"/>
+      <c r="F8" s="282"/>
+      <c r="G8" s="282"/>
+      <c r="H8" s="282"/>
+      <c r="I8" s="282"/>
+      <c r="J8" s="282"/>
+      <c r="K8" s="282"/>
+      <c r="L8" s="282"/>
+      <c r="M8" s="283"/>
+      <c r="N8" s="284"/>
+      <c r="O8" s="285"/>
+      <c r="P8" s="286"/>
+      <c r="Q8" s="281"/>
+      <c r="R8" s="282"/>
+      <c r="S8" s="283"/>
+      <c r="T8" s="284"/>
+      <c r="U8" s="285"/>
+      <c r="V8" s="286"/>
+      <c r="W8" s="123"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="91"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="282"/>
-      <c r="D9" s="283"/>
-      <c r="E9" s="283"/>
-      <c r="F9" s="283"/>
-      <c r="G9" s="283"/>
-      <c r="H9" s="283"/>
-      <c r="I9" s="283"/>
-      <c r="J9" s="283"/>
-      <c r="K9" s="283"/>
-      <c r="L9" s="283"/>
-      <c r="M9" s="284"/>
-      <c r="N9" s="285"/>
-      <c r="O9" s="286"/>
-      <c r="P9" s="287"/>
-      <c r="Q9" s="282"/>
-      <c r="R9" s="283"/>
-      <c r="S9" s="284"/>
-      <c r="T9" s="285"/>
-      <c r="U9" s="286"/>
-      <c r="V9" s="287"/>
-      <c r="W9" s="124"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="281"/>
+      <c r="D9" s="282"/>
+      <c r="E9" s="282"/>
+      <c r="F9" s="282"/>
+      <c r="G9" s="282"/>
+      <c r="H9" s="282"/>
+      <c r="I9" s="282"/>
+      <c r="J9" s="282"/>
+      <c r="K9" s="282"/>
+      <c r="L9" s="282"/>
+      <c r="M9" s="283"/>
+      <c r="N9" s="284"/>
+      <c r="O9" s="285"/>
+      <c r="P9" s="286"/>
+      <c r="Q9" s="281"/>
+      <c r="R9" s="282"/>
+      <c r="S9" s="283"/>
+      <c r="T9" s="284"/>
+      <c r="U9" s="285"/>
+      <c r="V9" s="286"/>
+      <c r="W9" s="123"/>
       <c r="X9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="91"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="282"/>
-      <c r="D10" s="283"/>
-      <c r="E10" s="283"/>
-      <c r="F10" s="283"/>
-      <c r="G10" s="283"/>
-      <c r="H10" s="283"/>
-      <c r="I10" s="283"/>
-      <c r="J10" s="283"/>
-      <c r="K10" s="283"/>
-      <c r="L10" s="283"/>
-      <c r="M10" s="284"/>
-      <c r="N10" s="285"/>
-      <c r="O10" s="286"/>
-      <c r="P10" s="287"/>
-      <c r="Q10" s="282"/>
-      <c r="R10" s="283"/>
-      <c r="S10" s="284"/>
-      <c r="T10" s="285"/>
-      <c r="U10" s="286"/>
-      <c r="V10" s="287"/>
-      <c r="W10" s="124"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="281"/>
+      <c r="D10" s="282"/>
+      <c r="E10" s="282"/>
+      <c r="F10" s="282"/>
+      <c r="G10" s="282"/>
+      <c r="H10" s="282"/>
+      <c r="I10" s="282"/>
+      <c r="J10" s="282"/>
+      <c r="K10" s="282"/>
+      <c r="L10" s="282"/>
+      <c r="M10" s="283"/>
+      <c r="N10" s="284"/>
+      <c r="O10" s="285"/>
+      <c r="P10" s="286"/>
+      <c r="Q10" s="281"/>
+      <c r="R10" s="282"/>
+      <c r="S10" s="283"/>
+      <c r="T10" s="284"/>
+      <c r="U10" s="285"/>
+      <c r="V10" s="286"/>
+      <c r="W10" s="123"/>
       <c r="X10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="91"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="288"/>
-      <c r="D11" s="289"/>
-      <c r="E11" s="289"/>
-      <c r="F11" s="289"/>
-      <c r="G11" s="289"/>
-      <c r="H11" s="289"/>
-      <c r="I11" s="289"/>
-      <c r="J11" s="289"/>
-      <c r="K11" s="289"/>
-      <c r="L11" s="289"/>
-      <c r="M11" s="290"/>
-      <c r="N11" s="291"/>
-      <c r="O11" s="292"/>
-      <c r="P11" s="293"/>
-      <c r="Q11" s="288"/>
-      <c r="R11" s="289"/>
-      <c r="S11" s="290"/>
-      <c r="T11" s="291"/>
-      <c r="U11" s="292"/>
-      <c r="V11" s="293"/>
-      <c r="W11" s="124"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="287"/>
+      <c r="D11" s="288"/>
+      <c r="E11" s="288"/>
+      <c r="F11" s="288"/>
+      <c r="G11" s="288"/>
+      <c r="H11" s="288"/>
+      <c r="I11" s="288"/>
+      <c r="J11" s="288"/>
+      <c r="K11" s="288"/>
+      <c r="L11" s="288"/>
+      <c r="M11" s="289"/>
+      <c r="N11" s="290"/>
+      <c r="O11" s="291"/>
+      <c r="P11" s="292"/>
+      <c r="Q11" s="287"/>
+      <c r="R11" s="288"/>
+      <c r="S11" s="289"/>
+      <c r="T11" s="290"/>
+      <c r="U11" s="291"/>
+      <c r="V11" s="292"/>
+      <c r="W11" s="123"/>
       <c r="X11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="123"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="294"/>
-      <c r="D12" s="295"/>
-      <c r="E12" s="295"/>
-      <c r="F12" s="295"/>
-      <c r="G12" s="295"/>
-      <c r="H12" s="295"/>
-      <c r="I12" s="295"/>
-      <c r="J12" s="295"/>
-      <c r="K12" s="295"/>
-      <c r="L12" s="295"/>
-      <c r="M12" s="296"/>
-      <c r="N12" s="297"/>
-      <c r="O12" s="298"/>
-      <c r="P12" s="299"/>
-      <c r="Q12" s="294"/>
-      <c r="R12" s="295"/>
-      <c r="S12" s="296"/>
-      <c r="T12" s="297"/>
-      <c r="U12" s="298"/>
-      <c r="V12" s="299"/>
-      <c r="W12" s="124"/>
+      <c r="A12" s="122"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="293"/>
+      <c r="D12" s="294"/>
+      <c r="E12" s="294"/>
+      <c r="F12" s="294"/>
+      <c r="G12" s="294"/>
+      <c r="H12" s="294"/>
+      <c r="I12" s="294"/>
+      <c r="J12" s="294"/>
+      <c r="K12" s="294"/>
+      <c r="L12" s="294"/>
+      <c r="M12" s="295"/>
+      <c r="N12" s="296"/>
+      <c r="O12" s="297"/>
+      <c r="P12" s="298"/>
+      <c r="Q12" s="293"/>
+      <c r="R12" s="294"/>
+      <c r="S12" s="295"/>
+      <c r="T12" s="296"/>
+      <c r="U12" s="297"/>
+      <c r="V12" s="298"/>
+      <c r="W12" s="123"/>
       <c r="X12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="300"/>
-      <c r="D13" s="301"/>
-      <c r="E13" s="301"/>
-      <c r="F13" s="301"/>
-      <c r="G13" s="301"/>
-      <c r="H13" s="301"/>
-      <c r="I13" s="301"/>
-      <c r="J13" s="301"/>
-      <c r="K13" s="301"/>
-      <c r="L13" s="301"/>
-      <c r="M13" s="302"/>
-      <c r="N13" s="303"/>
-      <c r="O13" s="304"/>
-      <c r="P13" s="305"/>
-      <c r="Q13" s="300"/>
-      <c r="R13" s="301"/>
-      <c r="S13" s="302"/>
-      <c r="T13" s="303"/>
-      <c r="U13" s="304"/>
-      <c r="V13" s="305"/>
-      <c r="W13" s="124"/>
+      <c r="C13" s="299"/>
+      <c r="D13" s="300"/>
+      <c r="E13" s="300"/>
+      <c r="F13" s="300"/>
+      <c r="G13" s="300"/>
+      <c r="H13" s="300"/>
+      <c r="I13" s="300"/>
+      <c r="J13" s="300"/>
+      <c r="K13" s="300"/>
+      <c r="L13" s="300"/>
+      <c r="M13" s="301"/>
+      <c r="N13" s="302"/>
+      <c r="O13" s="303"/>
+      <c r="P13" s="304"/>
+      <c r="Q13" s="299"/>
+      <c r="R13" s="300"/>
+      <c r="S13" s="301"/>
+      <c r="T13" s="302"/>
+      <c r="U13" s="303"/>
+      <c r="V13" s="304"/>
+      <c r="W13" s="123"/>
       <c r="X13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="145"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="306"/>
-      <c r="D14" s="307"/>
-      <c r="E14" s="307"/>
-      <c r="F14" s="307"/>
-      <c r="G14" s="307"/>
-      <c r="H14" s="307"/>
-      <c r="I14" s="307"/>
-      <c r="J14" s="307"/>
-      <c r="K14" s="307"/>
-      <c r="L14" s="307"/>
-      <c r="M14" s="308"/>
-      <c r="N14" s="309"/>
-      <c r="O14" s="310"/>
-      <c r="P14" s="311"/>
-      <c r="Q14" s="306"/>
-      <c r="R14" s="307"/>
-      <c r="S14" s="308"/>
-      <c r="T14" s="309"/>
-      <c r="U14" s="310"/>
-      <c r="V14" s="311"/>
-      <c r="W14" s="124"/>
+      <c r="A14" s="144"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="305"/>
+      <c r="D14" s="306"/>
+      <c r="E14" s="306"/>
+      <c r="F14" s="306"/>
+      <c r="G14" s="306"/>
+      <c r="H14" s="306"/>
+      <c r="I14" s="306"/>
+      <c r="J14" s="306"/>
+      <c r="K14" s="306"/>
+      <c r="L14" s="306"/>
+      <c r="M14" s="307"/>
+      <c r="N14" s="308"/>
+      <c r="O14" s="309"/>
+      <c r="P14" s="310"/>
+      <c r="Q14" s="305"/>
+      <c r="R14" s="306"/>
+      <c r="S14" s="307"/>
+      <c r="T14" s="308"/>
+      <c r="U14" s="309"/>
+      <c r="V14" s="310"/>
+      <c r="W14" s="123"/>
       <c r="X14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="157"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="312"/>
-      <c r="D15" s="313"/>
-      <c r="E15" s="313"/>
-      <c r="F15" s="313"/>
-      <c r="G15" s="313"/>
-      <c r="H15" s="313"/>
-      <c r="I15" s="313"/>
-      <c r="J15" s="313"/>
-      <c r="K15" s="313"/>
-      <c r="L15" s="313"/>
-      <c r="M15" s="314"/>
-      <c r="N15" s="315"/>
-      <c r="O15" s="316"/>
-      <c r="P15" s="317"/>
-      <c r="Q15" s="312"/>
-      <c r="R15" s="313"/>
-      <c r="S15" s="314"/>
-      <c r="T15" s="315"/>
-      <c r="U15" s="316"/>
-      <c r="V15" s="317"/>
-      <c r="W15" s="124"/>
+      <c r="A15" s="156"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="311"/>
+      <c r="D15" s="312"/>
+      <c r="E15" s="312"/>
+      <c r="F15" s="312"/>
+      <c r="G15" s="312"/>
+      <c r="H15" s="312"/>
+      <c r="I15" s="312"/>
+      <c r="J15" s="312"/>
+      <c r="K15" s="312"/>
+      <c r="L15" s="312"/>
+      <c r="M15" s="313"/>
+      <c r="N15" s="314"/>
+      <c r="O15" s="315"/>
+      <c r="P15" s="316"/>
+      <c r="Q15" s="311"/>
+      <c r="R15" s="312"/>
+      <c r="S15" s="313"/>
+      <c r="T15" s="314"/>
+      <c r="U15" s="315"/>
+      <c r="V15" s="316"/>
+      <c r="W15" s="123"/>
       <c r="X15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="123"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="124"/>
-      <c r="P16" s="124"/>
-      <c r="Q16" s="124"/>
-      <c r="R16" s="124"/>
-      <c r="S16" s="269"/>
-      <c r="T16" s="124"/>
-      <c r="U16" s="124"/>
-      <c r="V16" s="124"/>
-      <c r="W16" s="124"/>
+      <c r="A16" s="122"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="123"/>
+      <c r="S16" s="268"/>
+      <c r="T16" s="123"/>
+      <c r="U16" s="123"/>
+      <c r="V16" s="123"/>
+      <c r="W16" s="123"/>
       <c r="X16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="318" t="n">
+      <c r="B17" s="40"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="317" t="n">
         <v>0</v>
       </c>
-      <c r="E17" s="318" t="n">
+      <c r="E17" s="317" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="318" t="n">
+      <c r="F17" s="317" t="n">
         <v>2</v>
       </c>
-      <c r="G17" s="318" t="n">
+      <c r="G17" s="317" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="318" t="n">
+      <c r="H17" s="317" t="n">
         <v>4</v>
       </c>
-      <c r="I17" s="318" t="n">
+      <c r="I17" s="317" t="n">
         <v>5</v>
       </c>
-      <c r="J17" s="318" t="n">
+      <c r="J17" s="317" t="n">
         <v>6</v>
       </c>
-      <c r="K17" s="318" t="n">
+      <c r="K17" s="317" t="n">
         <v>7</v>
       </c>
-      <c r="L17" s="318" t="n">
+      <c r="L17" s="317" t="n">
         <v>8</v>
       </c>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
-      <c r="Q17" s="169"/>
+      <c r="Q17" s="168"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="42"/>
+      <c r="S17" s="41"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
-      <c r="W17" s="41"/>
+      <c r="W17" s="40"/>
       <c r="X17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5309,7 +6019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFF4081"/>
@@ -5326,8 +6036,8 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="43" width="7.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="44" width="6.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="7.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="43" width="6.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="1" width="2.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="2" width="3.05"/>
@@ -5335,15 +6045,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="9.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="5.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="19" style="1" width="3.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="43" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="42" width="4.91"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="3" t="s">
         <v>29</v>
       </c>
@@ -5392,58 +6102,58 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="277" t="s">
+      <c r="Q2" s="276" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="277"/>
-      <c r="S2" s="277"/>
-      <c r="T2" s="277"/>
-      <c r="U2" s="277"/>
-      <c r="V2" s="277"/>
+      <c r="R2" s="276"/>
+      <c r="S2" s="276"/>
+      <c r="T2" s="276"/>
+      <c r="U2" s="276"/>
+      <c r="V2" s="276"/>
       <c r="W2" s="4"/>
       <c r="X2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="278" t="s">
+      <c r="C3" s="277" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="279" t="s">
+      <c r="D3" s="278" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="279"/>
-      <c r="F3" s="279"/>
-      <c r="G3" s="279"/>
-      <c r="H3" s="279"/>
-      <c r="I3" s="279"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="279"/>
-      <c r="L3" s="279"/>
-      <c r="M3" s="278" t="s">
+      <c r="E3" s="278"/>
+      <c r="F3" s="278"/>
+      <c r="G3" s="278"/>
+      <c r="H3" s="278"/>
+      <c r="I3" s="278"/>
+      <c r="J3" s="278"/>
+      <c r="K3" s="278"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="277" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="278" t="s">
+      <c r="N3" s="277" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="278"/>
-      <c r="P3" s="278" t="s">
+      <c r="O3" s="277"/>
+      <c r="P3" s="277" t="s">
         <v>37</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="279" t="s">
+      <c r="R3" s="278" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="279" t="s">
+      <c r="S3" s="278" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="279" t="s">
+      <c r="T3" s="278" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="279"/>
-      <c r="V3" s="279" t="s">
+      <c r="U3" s="278"/>
+      <c r="V3" s="278" t="s">
         <v>37</v>
       </c>
       <c r="W3" s="4"/>
@@ -5452,329 +6162,329 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="278"/>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="279"/>
-      <c r="H4" s="279"/>
-      <c r="I4" s="279"/>
-      <c r="J4" s="279"/>
-      <c r="K4" s="279"/>
-      <c r="L4" s="279"/>
-      <c r="M4" s="278"/>
-      <c r="N4" s="50" t="s">
+      <c r="C4" s="277"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="278"/>
+      <c r="H4" s="278"/>
+      <c r="I4" s="278"/>
+      <c r="J4" s="278"/>
+      <c r="K4" s="278"/>
+      <c r="L4" s="278"/>
+      <c r="M4" s="277"/>
+      <c r="N4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="50" t="s">
+      <c r="O4" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="278"/>
+      <c r="P4" s="277"/>
       <c r="Q4" s="12"/>
-      <c r="R4" s="279"/>
-      <c r="S4" s="279"/>
-      <c r="T4" s="280" t="s">
+      <c r="R4" s="278"/>
+      <c r="S4" s="278"/>
+      <c r="T4" s="279" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="280" t="s">
+      <c r="U4" s="279" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="279"/>
+      <c r="V4" s="278"/>
       <c r="W4" s="4"/>
       <c r="X4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="319" t="s">
+      <c r="B5" s="318" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="320"/>
-      <c r="D5" s="320"/>
-      <c r="E5" s="320"/>
-      <c r="F5" s="320"/>
-      <c r="G5" s="320"/>
-      <c r="H5" s="320"/>
-      <c r="I5" s="320"/>
-      <c r="J5" s="320"/>
-      <c r="K5" s="320"/>
-      <c r="L5" s="320"/>
-      <c r="M5" s="320"/>
-      <c r="N5" s="320"/>
-      <c r="O5" s="320"/>
-      <c r="P5" s="320"/>
-      <c r="Q5" s="320"/>
-      <c r="R5" s="320"/>
-      <c r="S5" s="320"/>
-      <c r="T5" s="320"/>
-      <c r="U5" s="320"/>
-      <c r="V5" s="320"/>
+      <c r="C5" s="319"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="319"/>
+      <c r="J5" s="319"/>
+      <c r="K5" s="319"/>
+      <c r="L5" s="319"/>
+      <c r="M5" s="319"/>
+      <c r="N5" s="319"/>
+      <c r="O5" s="319"/>
+      <c r="P5" s="319"/>
+      <c r="Q5" s="319"/>
+      <c r="R5" s="319"/>
+      <c r="S5" s="319"/>
+      <c r="T5" s="319"/>
+      <c r="U5" s="319"/>
+      <c r="V5" s="319"/>
       <c r="W5" s="4"/>
       <c r="X5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="321"/>
-      <c r="D6" s="322"/>
-      <c r="E6" s="323"/>
-      <c r="F6" s="323"/>
-      <c r="G6" s="323"/>
-      <c r="H6" s="323"/>
-      <c r="I6" s="323"/>
-      <c r="J6" s="323"/>
-      <c r="K6" s="323"/>
-      <c r="L6" s="324"/>
-      <c r="M6" s="321"/>
-      <c r="N6" s="322"/>
-      <c r="O6" s="324"/>
-      <c r="P6" s="321"/>
-      <c r="Q6" s="321"/>
-      <c r="R6" s="322"/>
-      <c r="S6" s="321"/>
-      <c r="T6" s="322"/>
-      <c r="U6" s="324"/>
-      <c r="V6" s="321"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="320"/>
+      <c r="D6" s="321"/>
+      <c r="E6" s="322"/>
+      <c r="F6" s="322"/>
+      <c r="G6" s="322"/>
+      <c r="H6" s="322"/>
+      <c r="I6" s="322"/>
+      <c r="J6" s="322"/>
+      <c r="K6" s="322"/>
+      <c r="L6" s="323"/>
+      <c r="M6" s="320"/>
+      <c r="N6" s="321"/>
+      <c r="O6" s="323"/>
+      <c r="P6" s="320"/>
+      <c r="Q6" s="320"/>
+      <c r="R6" s="321"/>
+      <c r="S6" s="320"/>
+      <c r="T6" s="321"/>
+      <c r="U6" s="323"/>
+      <c r="V6" s="320"/>
       <c r="W6" s="4"/>
       <c r="X6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="69"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="325"/>
-      <c r="D7" s="326"/>
-      <c r="E7" s="327"/>
-      <c r="F7" s="327"/>
-      <c r="G7" s="327"/>
-      <c r="H7" s="327"/>
-      <c r="I7" s="327"/>
-      <c r="J7" s="327"/>
-      <c r="K7" s="327"/>
-      <c r="L7" s="328"/>
-      <c r="M7" s="325"/>
-      <c r="N7" s="326"/>
-      <c r="O7" s="328"/>
-      <c r="P7" s="325"/>
-      <c r="Q7" s="325"/>
-      <c r="R7" s="326"/>
-      <c r="S7" s="325"/>
-      <c r="T7" s="326"/>
-      <c r="U7" s="328"/>
-      <c r="V7" s="325"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="324"/>
+      <c r="D7" s="325"/>
+      <c r="E7" s="326"/>
+      <c r="F7" s="326"/>
+      <c r="G7" s="326"/>
+      <c r="H7" s="326"/>
+      <c r="I7" s="326"/>
+      <c r="J7" s="326"/>
+      <c r="K7" s="326"/>
+      <c r="L7" s="327"/>
+      <c r="M7" s="324"/>
+      <c r="N7" s="325"/>
+      <c r="O7" s="327"/>
+      <c r="P7" s="324"/>
+      <c r="Q7" s="324"/>
+      <c r="R7" s="325"/>
+      <c r="S7" s="324"/>
+      <c r="T7" s="325"/>
+      <c r="U7" s="327"/>
+      <c r="V7" s="324"/>
       <c r="W7" s="4"/>
       <c r="X7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="329"/>
-      <c r="D8" s="330"/>
-      <c r="E8" s="331"/>
-      <c r="F8" s="331"/>
-      <c r="G8" s="331"/>
-      <c r="H8" s="331"/>
-      <c r="I8" s="331"/>
-      <c r="J8" s="331"/>
-      <c r="K8" s="331"/>
-      <c r="L8" s="332"/>
-      <c r="M8" s="329"/>
-      <c r="N8" s="330"/>
-      <c r="O8" s="332"/>
-      <c r="P8" s="329"/>
-      <c r="Q8" s="329"/>
-      <c r="R8" s="330"/>
-      <c r="S8" s="329"/>
-      <c r="T8" s="330"/>
-      <c r="U8" s="332"/>
-      <c r="V8" s="329"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="328"/>
+      <c r="D8" s="329"/>
+      <c r="E8" s="330"/>
+      <c r="F8" s="330"/>
+      <c r="G8" s="330"/>
+      <c r="H8" s="330"/>
+      <c r="I8" s="330"/>
+      <c r="J8" s="330"/>
+      <c r="K8" s="330"/>
+      <c r="L8" s="331"/>
+      <c r="M8" s="328"/>
+      <c r="N8" s="329"/>
+      <c r="O8" s="331"/>
+      <c r="P8" s="328"/>
+      <c r="Q8" s="328"/>
+      <c r="R8" s="329"/>
+      <c r="S8" s="328"/>
+      <c r="T8" s="329"/>
+      <c r="U8" s="331"/>
+      <c r="V8" s="328"/>
       <c r="W8" s="4"/>
       <c r="X8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="91"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="333"/>
-      <c r="D9" s="334"/>
-      <c r="E9" s="335"/>
-      <c r="F9" s="335"/>
-      <c r="G9" s="335"/>
-      <c r="H9" s="335"/>
-      <c r="I9" s="335"/>
-      <c r="J9" s="335"/>
-      <c r="K9" s="335"/>
-      <c r="L9" s="336"/>
-      <c r="M9" s="333"/>
-      <c r="N9" s="334"/>
-      <c r="O9" s="336"/>
-      <c r="P9" s="333"/>
-      <c r="Q9" s="333"/>
-      <c r="R9" s="334"/>
-      <c r="S9" s="333"/>
-      <c r="T9" s="334"/>
-      <c r="U9" s="336"/>
-      <c r="V9" s="333"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="332"/>
+      <c r="D9" s="333"/>
+      <c r="E9" s="334"/>
+      <c r="F9" s="334"/>
+      <c r="G9" s="334"/>
+      <c r="H9" s="334"/>
+      <c r="I9" s="334"/>
+      <c r="J9" s="334"/>
+      <c r="K9" s="334"/>
+      <c r="L9" s="335"/>
+      <c r="M9" s="332"/>
+      <c r="N9" s="333"/>
+      <c r="O9" s="335"/>
+      <c r="P9" s="332"/>
+      <c r="Q9" s="332"/>
+      <c r="R9" s="333"/>
+      <c r="S9" s="332"/>
+      <c r="T9" s="333"/>
+      <c r="U9" s="335"/>
+      <c r="V9" s="332"/>
       <c r="W9" s="4"/>
       <c r="X9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="91"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="333"/>
-      <c r="D10" s="334"/>
-      <c r="E10" s="335"/>
-      <c r="F10" s="335"/>
-      <c r="G10" s="335"/>
-      <c r="H10" s="335"/>
-      <c r="I10" s="335"/>
-      <c r="J10" s="335"/>
-      <c r="K10" s="335"/>
-      <c r="L10" s="336"/>
-      <c r="M10" s="333"/>
-      <c r="N10" s="334"/>
-      <c r="O10" s="336"/>
-      <c r="P10" s="333"/>
-      <c r="Q10" s="333"/>
-      <c r="R10" s="334"/>
-      <c r="S10" s="333"/>
-      <c r="T10" s="334"/>
-      <c r="U10" s="336"/>
-      <c r="V10" s="333"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="332"/>
+      <c r="D10" s="333"/>
+      <c r="E10" s="334"/>
+      <c r="F10" s="334"/>
+      <c r="G10" s="334"/>
+      <c r="H10" s="334"/>
+      <c r="I10" s="334"/>
+      <c r="J10" s="334"/>
+      <c r="K10" s="334"/>
+      <c r="L10" s="335"/>
+      <c r="M10" s="332"/>
+      <c r="N10" s="333"/>
+      <c r="O10" s="335"/>
+      <c r="P10" s="332"/>
+      <c r="Q10" s="332"/>
+      <c r="R10" s="333"/>
+      <c r="S10" s="332"/>
+      <c r="T10" s="333"/>
+      <c r="U10" s="335"/>
+      <c r="V10" s="332"/>
       <c r="W10" s="4"/>
       <c r="X10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="91"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="337"/>
-      <c r="D11" s="338"/>
-      <c r="E11" s="339"/>
-      <c r="F11" s="339"/>
-      <c r="G11" s="339"/>
-      <c r="H11" s="339"/>
-      <c r="I11" s="339"/>
-      <c r="J11" s="339"/>
-      <c r="K11" s="339"/>
-      <c r="L11" s="340"/>
-      <c r="M11" s="337"/>
-      <c r="N11" s="338"/>
-      <c r="O11" s="340"/>
-      <c r="P11" s="337"/>
-      <c r="Q11" s="337"/>
-      <c r="R11" s="338"/>
-      <c r="S11" s="337"/>
-      <c r="T11" s="338"/>
-      <c r="U11" s="340"/>
-      <c r="V11" s="337"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="336"/>
+      <c r="D11" s="337"/>
+      <c r="E11" s="338"/>
+      <c r="F11" s="338"/>
+      <c r="G11" s="338"/>
+      <c r="H11" s="338"/>
+      <c r="I11" s="338"/>
+      <c r="J11" s="338"/>
+      <c r="K11" s="338"/>
+      <c r="L11" s="339"/>
+      <c r="M11" s="336"/>
+      <c r="N11" s="337"/>
+      <c r="O11" s="339"/>
+      <c r="P11" s="336"/>
+      <c r="Q11" s="336"/>
+      <c r="R11" s="337"/>
+      <c r="S11" s="336"/>
+      <c r="T11" s="337"/>
+      <c r="U11" s="339"/>
+      <c r="V11" s="336"/>
       <c r="W11" s="4"/>
       <c r="X11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="123"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="341"/>
-      <c r="D12" s="342"/>
-      <c r="E12" s="343"/>
-      <c r="F12" s="343"/>
-      <c r="G12" s="343"/>
-      <c r="H12" s="343"/>
-      <c r="I12" s="343"/>
-      <c r="J12" s="343"/>
-      <c r="K12" s="343"/>
-      <c r="L12" s="344"/>
-      <c r="M12" s="341"/>
-      <c r="N12" s="342"/>
-      <c r="O12" s="344"/>
-      <c r="P12" s="341"/>
-      <c r="Q12" s="341"/>
-      <c r="R12" s="342"/>
-      <c r="S12" s="341"/>
-      <c r="T12" s="342"/>
-      <c r="U12" s="344"/>
-      <c r="V12" s="341"/>
+      <c r="A12" s="122"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="340"/>
+      <c r="D12" s="341"/>
+      <c r="E12" s="342"/>
+      <c r="F12" s="342"/>
+      <c r="G12" s="342"/>
+      <c r="H12" s="342"/>
+      <c r="I12" s="342"/>
+      <c r="J12" s="342"/>
+      <c r="K12" s="342"/>
+      <c r="L12" s="343"/>
+      <c r="M12" s="340"/>
+      <c r="N12" s="341"/>
+      <c r="O12" s="343"/>
+      <c r="P12" s="340"/>
+      <c r="Q12" s="340"/>
+      <c r="R12" s="341"/>
+      <c r="S12" s="340"/>
+      <c r="T12" s="341"/>
+      <c r="U12" s="343"/>
+      <c r="V12" s="340"/>
       <c r="W12" s="4"/>
       <c r="X12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="345"/>
-      <c r="D13" s="346"/>
-      <c r="E13" s="347"/>
-      <c r="F13" s="347"/>
-      <c r="G13" s="347"/>
-      <c r="H13" s="347"/>
-      <c r="I13" s="347"/>
-      <c r="J13" s="347"/>
-      <c r="K13" s="347"/>
-      <c r="L13" s="348"/>
-      <c r="M13" s="345"/>
-      <c r="N13" s="346"/>
-      <c r="O13" s="348"/>
-      <c r="P13" s="345"/>
-      <c r="Q13" s="345"/>
-      <c r="R13" s="346"/>
-      <c r="S13" s="345"/>
-      <c r="T13" s="346"/>
-      <c r="U13" s="348"/>
-      <c r="V13" s="345"/>
+      <c r="C13" s="344"/>
+      <c r="D13" s="345"/>
+      <c r="E13" s="346"/>
+      <c r="F13" s="346"/>
+      <c r="G13" s="346"/>
+      <c r="H13" s="346"/>
+      <c r="I13" s="346"/>
+      <c r="J13" s="346"/>
+      <c r="K13" s="346"/>
+      <c r="L13" s="347"/>
+      <c r="M13" s="344"/>
+      <c r="N13" s="345"/>
+      <c r="O13" s="347"/>
+      <c r="P13" s="344"/>
+      <c r="Q13" s="344"/>
+      <c r="R13" s="345"/>
+      <c r="S13" s="344"/>
+      <c r="T13" s="345"/>
+      <c r="U13" s="347"/>
+      <c r="V13" s="344"/>
       <c r="W13" s="4"/>
       <c r="X13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="145"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="349"/>
-      <c r="D14" s="350"/>
-      <c r="E14" s="351"/>
-      <c r="F14" s="351"/>
-      <c r="G14" s="351"/>
-      <c r="H14" s="351"/>
-      <c r="I14" s="351"/>
-      <c r="J14" s="351"/>
-      <c r="K14" s="351"/>
-      <c r="L14" s="352"/>
-      <c r="M14" s="349"/>
-      <c r="N14" s="350"/>
-      <c r="O14" s="352"/>
-      <c r="P14" s="349"/>
-      <c r="Q14" s="349"/>
-      <c r="R14" s="350"/>
-      <c r="S14" s="349"/>
-      <c r="T14" s="350"/>
-      <c r="U14" s="352"/>
-      <c r="V14" s="349"/>
+      <c r="A14" s="144"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="348"/>
+      <c r="D14" s="349"/>
+      <c r="E14" s="350"/>
+      <c r="F14" s="350"/>
+      <c r="G14" s="350"/>
+      <c r="H14" s="350"/>
+      <c r="I14" s="350"/>
+      <c r="J14" s="350"/>
+      <c r="K14" s="350"/>
+      <c r="L14" s="351"/>
+      <c r="M14" s="348"/>
+      <c r="N14" s="349"/>
+      <c r="O14" s="351"/>
+      <c r="P14" s="348"/>
+      <c r="Q14" s="348"/>
+      <c r="R14" s="349"/>
+      <c r="S14" s="348"/>
+      <c r="T14" s="349"/>
+      <c r="U14" s="351"/>
+      <c r="V14" s="348"/>
       <c r="W14" s="4"/>
       <c r="X14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="157"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="353"/>
-      <c r="D15" s="354"/>
-      <c r="E15" s="355"/>
-      <c r="F15" s="355"/>
-      <c r="G15" s="355"/>
-      <c r="H15" s="355"/>
-      <c r="I15" s="355"/>
-      <c r="J15" s="355"/>
-      <c r="K15" s="355"/>
-      <c r="L15" s="356"/>
-      <c r="M15" s="353"/>
-      <c r="N15" s="354"/>
-      <c r="O15" s="356"/>
-      <c r="P15" s="353"/>
-      <c r="Q15" s="353"/>
-      <c r="R15" s="354"/>
-      <c r="S15" s="353"/>
-      <c r="T15" s="354"/>
-      <c r="U15" s="356"/>
-      <c r="V15" s="353"/>
+      <c r="A15" s="156"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="352"/>
+      <c r="D15" s="353"/>
+      <c r="E15" s="354"/>
+      <c r="F15" s="354"/>
+      <c r="G15" s="354"/>
+      <c r="H15" s="354"/>
+      <c r="I15" s="354"/>
+      <c r="J15" s="354"/>
+      <c r="K15" s="354"/>
+      <c r="L15" s="355"/>
+      <c r="M15" s="352"/>
+      <c r="N15" s="353"/>
+      <c r="O15" s="355"/>
+      <c r="P15" s="352"/>
+      <c r="Q15" s="352"/>
+      <c r="R15" s="353"/>
+      <c r="S15" s="352"/>
+      <c r="T15" s="353"/>
+      <c r="U15" s="355"/>
+      <c r="V15" s="352"/>
       <c r="W15" s="4"/>
       <c r="X15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -5792,7 +6502,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="38"/>
+      <c r="S16" s="37"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
@@ -5801,46 +6511,46 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="357" t="n">
+      <c r="B17" s="40"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="356" t="n">
         <v>0</v>
       </c>
-      <c r="E17" s="357" t="n">
+      <c r="E17" s="356" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="357" t="n">
+      <c r="F17" s="356" t="n">
         <v>2</v>
       </c>
-      <c r="G17" s="357" t="n">
+      <c r="G17" s="356" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="357" t="n">
+      <c r="H17" s="356" t="n">
         <v>4</v>
       </c>
-      <c r="I17" s="357" t="n">
+      <c r="I17" s="356" t="n">
         <v>5</v>
       </c>
-      <c r="J17" s="357" t="n">
+      <c r="J17" s="356" t="n">
         <v>6</v>
       </c>
-      <c r="K17" s="357" t="n">
+      <c r="K17" s="356" t="n">
         <v>7</v>
       </c>
-      <c r="L17" s="357" t="n">
+      <c r="L17" s="356" t="n">
         <v>8</v>
       </c>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
-      <c r="Q17" s="169"/>
+      <c r="Q17" s="168"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
-      <c r="W17" s="41"/>
+      <c r="W17" s="40"/>
       <c r="X17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5972,4 +6682,119 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFF9100"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="7.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="71.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="42" width="4.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="357" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="357"/>
+      <c r="C1" s="358" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="278" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="51" t="n">
+        <f aca="false">VINE_Demonstrament!$A$6</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="318" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="319"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="359"/>
+      <c r="B6" s="360"/>
+      <c r="C6" s="361" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="36"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="356" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>